--- a/dokumenter/Modbus register .xlsx
+++ b/dokumenter/Modbus register .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SA CoDeSys\Prosjekter\360.001 - Regin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SA CoDeSys\Prosjekter\trosvik-barneskole\+BY2209B=360.20\dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,9 +173,6 @@
     <t>10.001</t>
   </si>
   <si>
-    <t>Drive Ok</t>
-  </si>
-  <si>
     <t>On</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>PLS</t>
+  </si>
+  <si>
+    <t>Drive Ok (lav når det er alarm*)</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -796,16 +796,16 @@
         <v>40005</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="7">
         <v>4</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>40121</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="7">
         <v>2000</v>
@@ -1136,19 +1136,19 @@
         <v>41001</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="12">
         <v>1001</v>
@@ -1157,13 +1157,13 @@
         <v>41002</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1251,7 +1251,7 @@
         <v>40631</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="12">
         <v>631</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="13">
         <v>632</v>
@@ -1297,21 +1297,21 @@
         <v>40633</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="13">
         <v>633</v>
@@ -1320,7 +1320,7 @@
         <v>40634</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="7">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="13">
         <v>1032</v>
@@ -1352,7 +1352,7 @@
         <v>41033</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="13">
         <v>641</v>
@@ -1384,17 +1384,17 @@
         <v>40642</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="13">
         <v>642</v>
@@ -1403,7 +1403,7 @@
         <v>40643</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="13">
         <v>1133</v>
@@ -1444,7 +1444,7 @@
         <v>41134</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="7">
         <v>4</v>
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
